--- a/RegressionTests/Unit_Test_5/transformed_secondzip/expected_aptrans_Scheme_601010.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_secondzip/expected_aptrans_Scheme_601010.xlsx
@@ -15,7 +15,6 @@
     <sheet name="~Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="#Sheet1" sheetId="3" r:id="rId4"/>
-    <sheet name="$Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="145">
   <si>
     <t>Remco Ltd</t>
   </si>
@@ -250,7 +249,62 @@
     <t>ER</t>
   </si>
   <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Payroll number 845 does not exist for Scheme ID 601010</t>
+  </si>
+  <si>
     <t>845</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Payroll number 845 does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>No Refno or PPS number or payroll number specified
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>PPS number 6943888Oqaad does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
+  </si>
+  <si>
+    <t>Forename [John] does not match Refno member's (0000845) forename [DONAL] or its initial
+Surname [Smith] does not match Refno member's (0000845) surname [ULUDAG]  (forename DONAL)</t>
+  </si>
+  <si>
+    <t>Forename [John] does not match PPS member's (refno=0000845) forename [DONAL] or its initial
+Surname [Smith] does not match PPS member's (refno=0000845) surname [ULUDAG]  (forename DONAL)</t>
+  </si>
+  <si>
+    <t>Forename [John] does not match PPS member's (refno=0000845) forename [DONAL] or its initial</t>
+  </si>
+  <si>
+    <t>Surname [Smith] does not match PPS member's (refno=0000845) surname [ULUDAG]  (forename DONAL)</t>
+  </si>
+  <si>
+    <t>Member surname is not populated</t>
+  </si>
+  <si>
+    <t>Surname [Milo] does not match PPS member's (refno=0000845) surname [ULUDAG]  (forename DONAL)</t>
+  </si>
+  <si>
+    <t>Original name [DONAL ULUDAGqq] was invalid, and has been replaced with the PPS member name from Administrator</t>
+  </si>
+  <si>
+    <t>Original name [David ULUDAGqq] was invalid, and has been replaced with the PPS member name from Administrator</t>
+  </si>
+  <si>
+    <t>Forename [eDavid] does not match PPS member's (refno=0000845) forename [DONAL] or its initial
+Original surname [ULUDAGqq] is invalid, but is similar to the PPS member surname [ULUDAG] in Administrator</t>
+  </si>
+  <si>
+    <t>Payroll number 845ee does not exist for Scheme ID 601010
+Member does not have open Paypoints</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -265,19 +319,169 @@
     <t>13346.06</t>
   </si>
   <si>
-    <t>1_Errors_found</t>
+    <t>Payment Frequency</t>
   </si>
   <si>
-    <t>Error Type</t>
+    <t>Invoice Number</t>
   </si>
   <si>
-    <t>Error Description</t>
+    <t>Collection Method</t>
   </si>
   <si>
-    <t>schemeNotNull</t>
+    <t>Date Received</t>
   </si>
   <si>
-    <t>The Scheme ID is missing</t>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1178489</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1149840</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,177.74</t>
+  </si>
+  <si>
+    <t>Revised Risk (Total/12*4)</t>
+  </si>
+  <si>
+    <t>1122062</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>19,974.02</t>
+  </si>
+  <si>
+    <t>2020Risk</t>
+  </si>
+  <si>
+    <t>1067417</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>15,889.15</t>
+  </si>
+  <si>
+    <t>2019 Costs</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>30/05/2000</t>
+  </si>
+  <si>
+    <t>06/04/2000</t>
+  </si>
+  <si>
+    <t>1,250.13</t>
+  </si>
+  <si>
+    <t>01/05/2000</t>
+  </si>
+  <si>
+    <t>May 00</t>
+  </si>
+  <si>
+    <t>35036</t>
+  </si>
+  <si>
+    <t>24/05/2000</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>Apr '00 intd</t>
+  </si>
+  <si>
+    <t>29038</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>Mar 00</t>
   </si>
 </sst>
 </file>
@@ -289,7 +493,7 @@
     <numFmt numFmtId="164" formatCode="0000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,11 +553,26 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,13 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00CC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000CC"/>
+        <fgColor rgb="FFCCFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +658,7 @@
       <protection/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -622,14 +835,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23391,7 +23607,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -23399,10 +23615,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="109.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="48" t="s">
         <v>61</v>
       </c>
@@ -23430,9 +23646,14 @@
       <c r="I1" s="49" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="50"/>
+      <c r="J1" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="50" t="s">
+        <v>70</v>
+      </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -23440,13 +23661,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>235.42</v>
@@ -23457,9 +23678,12 @@
       <c r="I2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="50"/>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25">
+      <c r="A3" s="51"/>
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -23478,9 +23702,12 @@
       <c r="I3">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25">
-      <c r="A4" s="50"/>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25">
+      <c r="A4" s="51"/>
       <c r="B4" t="s">
         <v>22</v>
       </c>
@@ -23488,7 +23715,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G4">
         <v>500.0</v>
@@ -23499,9 +23726,14 @@
       <c r="I4">
         <v>240.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25">
-      <c r="A5" s="50"/>
+      <c r="J4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
+      <c r="A5" s="50" t="s">
+        <v>73</v>
+      </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -23509,7 +23741,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G5">
         <v>160.42</v>
@@ -23521,8 +23753,10 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25">
-      <c r="A6" s="50"/>
+    <row r="6" spans="1:9" ht="30">
+      <c r="A6" s="50" t="s">
+        <v>74</v>
+      </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -23539,8 +23773,10 @@
         <v>440.16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25">
-      <c r="A7" s="50"/>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="50" t="s">
+        <v>75</v>
+      </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -23560,8 +23796,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25">
-      <c r="A8" s="50"/>
+    <row r="8" spans="1:10" ht="14.25">
+      <c r="A8" s="51"/>
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -23580,9 +23816,14 @@
       <c r="I8">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25">
-      <c r="A9" s="50"/>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30">
+      <c r="A9" s="50" t="s">
+        <v>76</v>
+      </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -23601,9 +23842,14 @@
       <c r="I9">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25">
-      <c r="A10" s="50"/>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
+      <c r="A10" s="50" t="s">
+        <v>77</v>
+      </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -23622,9 +23868,14 @@
       <c r="I10">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25">
-      <c r="A11" s="50"/>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="50" t="s">
+        <v>78</v>
+      </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -23643,9 +23894,14 @@
       <c r="I11">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25">
-      <c r="A12" s="50"/>
+      <c r="J11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="50" t="s">
+        <v>79</v>
+      </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -23664,9 +23920,14 @@
       <c r="I12">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25">
-      <c r="A13" s="50"/>
+      <c r="J12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="50" t="s">
+        <v>79</v>
+      </c>
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -23685,9 +23946,12 @@
       <c r="I13">
         <v>416.67</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25">
-      <c r="A14" s="50"/>
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25">
+      <c r="A14" s="51"/>
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -23706,9 +23970,14 @@
       <c r="I14">
         <v>416.67</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25">
-      <c r="A15" s="50"/>
+      <c r="J14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="50" t="s">
+        <v>80</v>
+      </c>
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -23724,9 +23993,14 @@
       <c r="I15">
         <v>416.67</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25">
-      <c r="A16" s="50"/>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="50" t="s">
+        <v>81</v>
+      </c>
       <c r="B16" t="s">
         <v>55</v>
       </c>
@@ -23745,13 +24019,18 @@
       <c r="I16">
         <v>416.67</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.25">
-      <c r="A17" s="50"/>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="J16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="52" t="s">
         <v>23</v>
       </c>
       <c r="E17" t="s">
@@ -23766,14 +24045,19 @@
       <c r="I17">
         <v>416.67</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.25">
-      <c r="A18" s="50"/>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>53</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -23787,9 +24071,14 @@
       <c r="I18">
         <v>416.67</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.25">
-      <c r="A19" s="50"/>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30">
+      <c r="A19" s="50" t="s">
+        <v>84</v>
+      </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -23808,9 +24097,14 @@
       <c r="I19">
         <v>416.67</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.25">
-      <c r="A20" s="50"/>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30">
+      <c r="A20" s="50" t="s">
+        <v>85</v>
+      </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -23838,13 +24132,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75"/>
+    <col min="2" max="2" width="14.125"/>
+    <col min="3" max="3" width="8.25"/>
+    <col min="4" max="4" width="15.75"/>
+    <col min="5" max="5" width="13.25"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="15.75"/>
+    <col min="8" max="8" width="10.5"/>
+    <col min="9" max="9" width="22.125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
@@ -23870,61 +24175,312 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="51"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_5/transformed_secondzip/expected_aptrans_Scheme_601010.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_secondzip/expected_aptrans_Scheme_601010.xlsx
@@ -622,10 +622,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -658,7 +658,7 @@
       <protection/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -832,16 +832,19 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -23731,7 +23734,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>73</v>
       </c>
       <c r="B5" t="s">
@@ -23754,7 +23757,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>74</v>
       </c>
       <c r="B6" t="s">
@@ -23774,7 +23777,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>75</v>
       </c>
       <c r="B7" t="s">
@@ -23821,7 +23824,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B9" t="s">
@@ -23847,7 +23850,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="30">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>77</v>
       </c>
       <c r="B10" t="s">
@@ -23873,7 +23876,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="52" t="s">
         <v>78</v>
       </c>
       <c r="B11" t="s">
@@ -23899,7 +23902,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>79</v>
       </c>
       <c r="B12" t="s">
@@ -23925,7 +23928,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="52" t="s">
         <v>79</v>
       </c>
       <c r="B13" t="s">
@@ -23975,7 +23978,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="52" t="s">
         <v>80</v>
       </c>
       <c r="C15" t="s">
@@ -23998,7 +24001,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="52" t="s">
         <v>81</v>
       </c>
       <c r="B16" t="s">
@@ -24024,13 +24027,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="53" t="s">
         <v>23</v>
       </c>
       <c r="E17" t="s">
@@ -24050,13 +24053,13 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="53" t="s">
         <v>53</v>
       </c>
       <c r="E18" t="s">
@@ -24076,7 +24079,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="30">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="52" t="s">
         <v>84</v>
       </c>
       <c r="B19" t="s">
@@ -24102,7 +24105,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B20" t="s">
@@ -24194,31 +24197,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="54" t="s">
         <v>97</v>
       </c>
     </row>

--- a/RegressionTests/Unit_Test_5/transformed_secondzip/expected_aptrans_Scheme_601010.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_secondzip/expected_aptrans_Scheme_601010.xlsx
@@ -15,6 +15,7 @@
     <sheet name="~Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="#Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="$Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="79">
   <si>
     <t>Remco Ltd</t>
   </si>
@@ -249,62 +250,7 @@
     <t>ER</t>
   </si>
   <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Payroll number 845 does not exist for Scheme ID 601010</t>
-  </si>
-  <si>
     <t>845</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Payroll number 845 does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>No Refno or PPS number or payroll number specified
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>PPS number 6943888Oqaad does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Forename [John] does not match Refno member's (0000845) forename [DONAL] or its initial
-Surname [Smith] does not match Refno member's (0000845) surname [ULUDAG]  (forename DONAL)</t>
-  </si>
-  <si>
-    <t>Forename [John] does not match PPS member's (refno=0000845) forename [DONAL] or its initial
-Surname [Smith] does not match PPS member's (refno=0000845) surname [ULUDAG]  (forename DONAL)</t>
-  </si>
-  <si>
-    <t>Forename [John] does not match PPS member's (refno=0000845) forename [DONAL] or its initial</t>
-  </si>
-  <si>
-    <t>Surname [Smith] does not match PPS member's (refno=0000845) surname [ULUDAG]  (forename DONAL)</t>
-  </si>
-  <si>
-    <t>Member surname is not populated</t>
-  </si>
-  <si>
-    <t>Surname [Milo] does not match PPS member's (refno=0000845) surname [ULUDAG]  (forename DONAL)</t>
-  </si>
-  <si>
-    <t>Original name [DONAL ULUDAGqq] was invalid, and has been replaced with the PPS member name from Administrator</t>
-  </si>
-  <si>
-    <t>Original name [David ULUDAGqq] was invalid, and has been replaced with the PPS member name from Administrator</t>
-  </si>
-  <si>
-    <t>Forename [eDavid] does not match PPS member's (refno=0000845) forename [DONAL] or its initial
-Original surname [ULUDAGqq] is invalid, but is similar to the PPS member surname [ULUDAG] in Administrator</t>
-  </si>
-  <si>
-    <t>Payroll number 845ee does not exist for Scheme ID 601010
-Member does not have open Paypoints</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -319,169 +265,19 @@
     <t>13346.06</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
+    <t>1_Errors_found</t>
   </si>
   <si>
-    <t>Invoice Number</t>
+    <t>Error Type</t>
   </si>
   <si>
-    <t>Collection Method</t>
+    <t>Error Description</t>
   </si>
   <si>
-    <t>Date Received</t>
+    <t>schemeNotNull</t>
   </si>
   <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1178489</t>
-  </si>
-  <si>
-    <t>101001</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>18/08/2021</t>
-  </si>
-  <si>
-    <t>7,517.33</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>ILIM August 2021</t>
-  </si>
-  <si>
-    <t>1173971</t>
-  </si>
-  <si>
-    <t>16/07/2021</t>
-  </si>
-  <si>
-    <t>1,533.32</t>
-  </si>
-  <si>
-    <t>01/06/2021</t>
-  </si>
-  <si>
-    <t>ILIM Julne 2021</t>
-  </si>
-  <si>
-    <t>1173522</t>
-  </si>
-  <si>
-    <t>5,984.01</t>
-  </si>
-  <si>
-    <t>ILIM June 2021</t>
-  </si>
-  <si>
-    <t>Annually</t>
-  </si>
-  <si>
-    <t>1149840</t>
-  </si>
-  <si>
-    <t>101002</t>
-  </si>
-  <si>
-    <t>25/02/2021</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>19,177.74</t>
-  </si>
-  <si>
-    <t>Revised Risk (Total/12*4)</t>
-  </si>
-  <si>
-    <t>1122062</t>
-  </si>
-  <si>
-    <t>01/07/2020</t>
-  </si>
-  <si>
-    <t>19,974.02</t>
-  </si>
-  <si>
-    <t>2020Risk</t>
-  </si>
-  <si>
-    <t>1067417</t>
-  </si>
-  <si>
-    <t>01/07/2019</t>
-  </si>
-  <si>
-    <t>15,889.15</t>
-  </si>
-  <si>
-    <t>2019 Costs</t>
-  </si>
-  <si>
-    <t>35300</t>
-  </si>
-  <si>
-    <t>101000</t>
-  </si>
-  <si>
-    <t>30/05/2000</t>
-  </si>
-  <si>
-    <t>06/04/2000</t>
-  </si>
-  <si>
-    <t>1,250.13</t>
-  </si>
-  <si>
-    <t>01/05/2000</t>
-  </si>
-  <si>
-    <t>May 00</t>
-  </si>
-  <si>
-    <t>35036</t>
-  </si>
-  <si>
-    <t>24/05/2000</t>
-  </si>
-  <si>
-    <t>03/05/2000</t>
-  </si>
-  <si>
-    <t>01/04/2000</t>
-  </si>
-  <si>
-    <t>Apr '00 intd</t>
-  </si>
-  <si>
-    <t>29038</t>
-  </si>
-  <si>
-    <t>15/03/2000</t>
-  </si>
-  <si>
-    <t>01/03/2000</t>
-  </si>
-  <si>
-    <t>Mar 00</t>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
@@ -493,7 +289,7 @@
     <numFmt numFmtId="164" formatCode="0000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,26 +349,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,7 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,7 +453,7 @@
       <protection/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -832,23 +627,20 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23610,7 +23402,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -23618,10 +23410,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="109.375"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="48" t="s">
         <v>61</v>
       </c>
@@ -23649,14 +23441,9 @@
       <c r="I1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="50" t="s">
-        <v>70</v>
-      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="50"/>
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -23664,13 +23451,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>235.42</v>
@@ -23681,11 +23468,8 @@
       <c r="I2">
         <v>0.0</v>
       </c>
-      <c r="J2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25">
+    </row>
+    <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="51"/>
       <c r="B3" t="s">
         <v>22</v>
@@ -23705,11 +23489,8 @@
       <c r="I3">
         <v>0.0</v>
       </c>
-      <c r="J3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25">
+    </row>
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="51"/>
       <c r="B4" t="s">
         <v>22</v>
@@ -23718,7 +23499,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4">
         <v>500.0</v>
@@ -23729,14 +23510,9 @@
       <c r="I4">
         <v>240.0</v>
       </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="52" t="s">
-        <v>73</v>
-      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25">
+      <c r="A5" s="51"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -23744,7 +23520,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5">
         <v>160.42</v>
@@ -23756,10 +23532,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30">
-      <c r="A6" s="52" t="s">
-        <v>74</v>
-      </c>
+    <row r="6" spans="1:9" ht="14.25">
+      <c r="A6" s="51"/>
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -23776,10 +23550,8 @@
         <v>440.16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="52" t="s">
-        <v>75</v>
-      </c>
+    <row r="7" spans="1:9" ht="14.25">
+      <c r="A7" s="51"/>
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -23799,7 +23571,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25">
+    <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="51"/>
       <c r="B8" t="s">
         <v>22</v>
@@ -23819,14 +23591,9 @@
       <c r="I8">
         <v>0.0</v>
       </c>
-      <c r="J8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30">
-      <c r="A9" s="52" t="s">
-        <v>76</v>
-      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25">
+      <c r="A9" s="51"/>
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -23845,14 +23612,9 @@
       <c r="I9">
         <v>0.0</v>
       </c>
-      <c r="J9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30">
-      <c r="A10" s="52" t="s">
-        <v>77</v>
-      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25">
+      <c r="A10" s="51"/>
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -23871,14 +23633,9 @@
       <c r="I10">
         <v>0.0</v>
       </c>
-      <c r="J10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" s="52" t="s">
-        <v>78</v>
-      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25">
+      <c r="A11" s="51"/>
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -23897,14 +23654,9 @@
       <c r="I11">
         <v>0.0</v>
       </c>
-      <c r="J11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" s="52" t="s">
-        <v>79</v>
-      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25">
+      <c r="A12" s="51"/>
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -23923,14 +23675,9 @@
       <c r="I12">
         <v>0.0</v>
       </c>
-      <c r="J12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="52" t="s">
-        <v>79</v>
-      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25">
+      <c r="A13" s="51"/>
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -23949,11 +23696,8 @@
       <c r="I13">
         <v>416.67</v>
       </c>
-      <c r="J13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25">
+    </row>
+    <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="51"/>
       <c r="B14" t="s">
         <v>22</v>
@@ -23973,14 +23717,9 @@
       <c r="I14">
         <v>416.67</v>
       </c>
-      <c r="J14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="A15" s="52" t="s">
-        <v>80</v>
-      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25">
+      <c r="A15" s="51"/>
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -23996,14 +23735,9 @@
       <c r="I15">
         <v>416.67</v>
       </c>
-      <c r="J15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" s="52" t="s">
-        <v>81</v>
-      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25">
+      <c r="A16" s="51"/>
       <c r="B16" t="s">
         <v>55</v>
       </c>
@@ -24022,18 +23756,13 @@
       <c r="I16">
         <v>416.67</v>
       </c>
-      <c r="J16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15">
-      <c r="A17" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="53" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="14.25">
+      <c r="A17" s="51"/>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
       </c>
       <c r="E17" t="s">
@@ -24048,19 +23777,14 @@
       <c r="I17">
         <v>416.67</v>
       </c>
-      <c r="J17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15">
-      <c r="A18" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>53</v>
+    </row>
+    <row r="18" spans="1:9" ht="14.25">
+      <c r="A18" s="51"/>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -24074,14 +23798,9 @@
       <c r="I18">
         <v>416.67</v>
       </c>
-      <c r="J18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30">
-      <c r="A19" s="52" t="s">
-        <v>84</v>
-      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25">
+      <c r="A19" s="51"/>
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -24100,14 +23819,9 @@
       <c r="I19">
         <v>416.67</v>
       </c>
-      <c r="J19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30">
-      <c r="A20" s="52" t="s">
-        <v>85</v>
-      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25">
+      <c r="A20" s="51"/>
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -24135,24 +23849,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="22.125"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
@@ -24178,312 +23881,61 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" t="s">
-        <v>139</v>
-      </c>
-      <c r="I20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I21" t="s">
-        <v>144</v>
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="52"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
